--- a/data/R236fa.xlsx
+++ b/data/R236fa.xlsx
@@ -5,7 +5,7 @@
   <workbookPr codeName="ThisWorkbook"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/Seb1/Dropbox/Projet_two_phase_flow/src/data/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/Seb1/Dropbox/BoilingOnTubeBundles/data/"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
@@ -2898,7 +2898,7 @@
         <v>40</v>
       </c>
       <c r="B5" s="4">
-        <v>4000</v>
+        <v>3641</v>
       </c>
     </row>
   </sheetData>
